--- a/pyFiles/MPC/Results/MPC_exhaustionTest_spd10_hrz10.xlsx
+++ b/pyFiles/MPC/Results/MPC_exhaustionTest_spd10_hrz10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axkar1\Documents\GitProj\ThesisWorkCybercom-master\pyFiles\MPC\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4792B671-3500-42F9-B5EE-6BD92C6C42B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF919732-ABB0-4648-9316-29095936C5FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="0" windowWidth="16224" windowHeight="11388" xr2:uid="{F5448FBC-9E1D-420B-B668-930ADAFD090F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="63">
   <si>
     <t>test run</t>
   </si>
@@ -69,9 +69,6 @@
     <t>1000 bit</t>
   </si>
   <si>
-    <t>MPC vs LEACH</t>
-  </si>
-  <si>
     <t>Exhaustion test</t>
   </si>
   <si>
@@ -91,6 +88,138 @@
   </si>
   <si>
     <t>5407/18668</t>
+  </si>
+  <si>
+    <t>LEACH</t>
+  </si>
+  <si>
+    <t>Exhaustion test [RAND]</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.8096</t>
+  </si>
+  <si>
+    <t>1848/20000</t>
+  </si>
+  <si>
+    <t>3442/18349</t>
+  </si>
+  <si>
+    <t>BLEACH</t>
+  </si>
+  <si>
+    <t>Horizon Length [segm] or Spread</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.8021</t>
+  </si>
+  <si>
+    <t>1847/15966</t>
+  </si>
+  <si>
+    <t>3341/10867</t>
+  </si>
+  <si>
+    <t>0.8310</t>
+  </si>
+  <si>
+    <t>4314/19802</t>
+  </si>
+  <si>
+    <t>2237/20000</t>
+  </si>
+  <si>
+    <t>0.8290</t>
+  </si>
+  <si>
+    <t>5034/19493</t>
+  </si>
+  <si>
+    <t>1991/18334</t>
+  </si>
+  <si>
+    <t>0.8157</t>
+  </si>
+  <si>
+    <t>4373/19011</t>
+  </si>
+  <si>
+    <t>2083/20000</t>
+  </si>
+  <si>
+    <t>0.8064</t>
+  </si>
+  <si>
+    <t>2361/18546</t>
+  </si>
+  <si>
+    <t>2419/19342</t>
+  </si>
+  <si>
+    <t>MPC + BLEACH</t>
+  </si>
+  <si>
+    <t>10, 0.5</t>
+  </si>
+  <si>
+    <t>0.8139</t>
+  </si>
+  <si>
+    <t>4374/15723</t>
+  </si>
+  <si>
+    <t>2525/20000</t>
+  </si>
+  <si>
+    <t>0.8215</t>
+  </si>
+  <si>
+    <t>1656/16164</t>
+  </si>
+  <si>
+    <t>4629/18668</t>
+  </si>
+  <si>
+    <t>0.8154</t>
+  </si>
+  <si>
+    <t>3881/15420</t>
+  </si>
+  <si>
+    <t>2135/20000</t>
+  </si>
+  <si>
+    <t>0.8236</t>
+  </si>
+  <si>
+    <t>2515/20000</t>
+  </si>
+  <si>
+    <t>4621/19231</t>
+  </si>
+  <si>
+    <t>0.8102</t>
+  </si>
+  <si>
+    <t>2472/20000</t>
+  </si>
+  <si>
+    <t>4109/17699</t>
+  </si>
+  <si>
+    <t>0.8160</t>
+  </si>
+  <si>
+    <t>2362/20000</t>
+  </si>
+  <si>
+    <t>3968/18061</t>
   </si>
 </sst>
 </file>
@@ -494,21 +623,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93054CE9-B638-4C7C-9D32-D3BE0D74E8D5}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C65" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" customWidth="1"/>
     <col min="5" max="5" width="20.109375" customWidth="1"/>
     <col min="6" max="6" width="37.5546875" customWidth="1"/>
-    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="7" max="7" width="39.21875" customWidth="1"/>
     <col min="8" max="8" width="19.77734375" customWidth="1"/>
     <col min="9" max="9" width="18.21875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
@@ -516,7 +645,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -566,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6">
         <v>42414000</v>
@@ -575,7 +704,7 @@
         <v>312</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7">
         <v>10</v>
@@ -595,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6">
         <v>42796000</v>
@@ -604,7 +733,7 @@
         <v>321</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7">
         <v>10</v>
@@ -754,7 +883,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6"/>
       <c r="F14" s="6"/>
@@ -772,7 +901,7 @@
         <v>662</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" t="s">
@@ -796,7 +925,7 @@
         <v>695</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
         <v>10</v>
@@ -808,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>3</v>
       </c>
@@ -825,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>4</v>
       </c>
@@ -842,7 +971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>5</v>
       </c>
@@ -858,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>6</v>
       </c>
@@ -874,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>7</v>
       </c>
@@ -890,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -906,8 +1035,1272 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="6">
+        <v>45452000</v>
+      </c>
+      <c r="E27" s="7">
+        <v>505</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="6">
+        <v>36308000</v>
+      </c>
+      <c r="E28" s="7">
+        <v>504</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="7">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="6">
+        <v>40136000</v>
+      </c>
+      <c r="E29" s="7">
+        <v>476</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="6">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="8">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
+        <v>37680000</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1332</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>29616000</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1394</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>3</v>
+      </c>
+      <c r="D40" s="7">
+        <v>32367000</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1484</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>5</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="3"/>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>6</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="3"/>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>7</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="3"/>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>8</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="3"/>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="6">
+        <v>42820000</v>
+      </c>
+      <c r="E50" s="7">
+        <v>493</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="7">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="5">
+        <v>2</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="6">
+        <v>39685000</v>
+      </c>
+      <c r="E51" s="7">
+        <v>495</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="7">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>3</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="6">
+        <v>38238000</v>
+      </c>
+      <c r="E52" s="7">
+        <v>474</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="6">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>4</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>5</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>6</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="5">
+        <v>7</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="5">
+        <v>8</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="8">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6">
+        <v>34668000</v>
+      </c>
+      <c r="E61" s="7">
+        <v>1129</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <v>2</v>
+      </c>
+      <c r="D62" s="6">
+        <v>31832000</v>
+      </c>
+      <c r="E62" s="7">
+        <v>825</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="4">
+        <v>3</v>
+      </c>
+      <c r="D63" s="7">
+        <v>31774000</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1331</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="4">
+        <v>4</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="4">
+        <v>5</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="3"/>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
+        <v>6</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="3"/>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="4">
+        <v>7</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="3"/>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B68" s="4">
+        <v>8</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="3"/>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="6">
+        <v>37163000</v>
+      </c>
+      <c r="E73" s="7">
+        <v>529</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B74" s="5">
+        <v>2</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="6">
+        <v>46222000</v>
+      </c>
+      <c r="E74" s="7">
+        <v>509</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="5">
+        <v>3</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="6">
+        <v>39000000</v>
+      </c>
+      <c r="E75" s="7">
+        <v>470</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="5">
+        <v>4</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="7">
+        <v>39482000</v>
+      </c>
+      <c r="E76" s="6">
+        <v>493</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="5">
+        <v>5</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="6">
+        <v>43601000</v>
+      </c>
+      <c r="E77" s="6">
+        <v>502</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="5">
+        <v>6</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="6">
+        <v>42992000</v>
+      </c>
+      <c r="E78" s="6">
+        <v>524</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="5">
+        <v>7</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="5">
+        <v>8</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="5">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6">
+        <v>30246000</v>
+      </c>
+      <c r="E84" s="7">
+        <v>1048</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="5">
+        <v>2</v>
+      </c>
+      <c r="D85" s="6">
+        <v>37970000</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1141</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="4">
+        <v>3</v>
+      </c>
+      <c r="D86" s="7">
+        <v>31799000</v>
+      </c>
+      <c r="E86" s="7">
+        <v>1096</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="4">
+        <v>4</v>
+      </c>
+      <c r="D87" s="7">
+        <v>32516000</v>
+      </c>
+      <c r="E87" s="7">
+        <v>1082</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H87" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="4">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>35325000</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1287</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="4">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>35080000</v>
+      </c>
+      <c r="E89" s="7">
+        <v>1262</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="4">
+        <v>7</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="3"/>
+      <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="4">
+        <v>8</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="3"/>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="7">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
